--- a/Pinbelegung.xlsx
+++ b/Pinbelegung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\local_kcthdxi\OneDrive\Bahn\zug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B625D3A6-396D-4C84-8DB7-F29B23B0F754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50576D2A-6F99-4266-8551-B820FB57D50E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="870" windowWidth="27660" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>Modell B+</t>
   </si>
@@ -1134,12 +1134,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1290,6 +1284,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="B7" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1617,11 +1617,11 @@
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C1" s="2"/>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1629,1098 +1629,1102 @@
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="2"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C3" s="2"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="10"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51" t="s">
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18">
+      <c r="E4" s="5"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16">
         <v>1</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20">
+      <c r="I4" s="17"/>
+      <c r="J4" s="18">
         <v>2</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="21" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="56" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="52" t="s">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="59" t="s">
+      <c r="T4" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="V4" s="52" t="s">
+      <c r="V4" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="59" t="s">
+      <c r="W4" s="57" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="V5" s="22"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="V5" s="20"/>
     </row>
     <row r="6" spans="2:23" ht="24" x14ac:dyDescent="0.2">
       <c r="B6" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="23">
+        <v>3</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18">
+        <v>4</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="V6" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" s="57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="52"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="V7" s="20"/>
+    </row>
+    <row r="8" spans="2:23" ht="24" x14ac:dyDescent="0.2">
+      <c r="B8" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="24" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="23">
         <v>5</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="25">
+      <c r="I8" s="17"/>
+      <c r="J8" s="25">
+        <v>6</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="24"/>
+      <c r="P8" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="V8" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" s="57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="52"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="V9" s="20"/>
+    </row>
+    <row r="10" spans="2:23" ht="24" x14ac:dyDescent="0.2">
+      <c r="B10" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="30">
+        <v>7</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="31">
+        <v>8</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="52"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="V11" s="20"/>
+    </row>
+    <row r="12" spans="2:23" ht="24" x14ac:dyDescent="0.2">
+      <c r="B12" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="25">
+        <v>9</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="31">
+        <v>10</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="T12" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="V12" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="52"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="V13" s="20"/>
+    </row>
+    <row r="14" spans="2:23" ht="24" x14ac:dyDescent="0.2">
+      <c r="B14" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="30">
+        <v>11</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="30">
+        <v>12</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="V14" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="52"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" spans="2:23" ht="24" x14ac:dyDescent="0.2">
+      <c r="B16" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="30">
+        <v>13</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="25">
+        <v>14</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="24"/>
+      <c r="P16" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="T16" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="V16" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="52"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="V17" s="20"/>
+    </row>
+    <row r="18" spans="2:22" ht="24" x14ac:dyDescent="0.2">
+      <c r="B18" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="30">
+        <v>15</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="30">
+        <v>16</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="54"/>
+      <c r="S18" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="T18" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="V18" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="52"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+    </row>
+    <row r="20" spans="2:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="51"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20">
-        <v>4</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="V6" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" s="59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="54"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="V7" s="22"/>
-    </row>
-    <row r="8" spans="2:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="B8" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="25">
-        <v>5</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="27">
-        <v>6</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="30" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16">
+        <v>17</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="30">
+        <v>18</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="52"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+    </row>
+    <row r="22" spans="2:22" ht="24" x14ac:dyDescent="0.2">
+      <c r="B22" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="31">
+        <v>19</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="25">
+        <v>20</v>
+      </c>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="V8" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="W8" s="59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="54"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="V9" s="22"/>
-    </row>
-    <row r="10" spans="2:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="B10" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="32">
+      <c r="O22" s="24"/>
+      <c r="P22" s="56"/>
+    </row>
+    <row r="23" spans="2:22" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="52"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+    </row>
+    <row r="24" spans="2:22" ht="24" x14ac:dyDescent="0.2">
+      <c r="B24" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="31">
+        <v>21</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="40">
+        <v>22</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="12"/>
+      <c r="P24" s="54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="52"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+    </row>
+    <row r="26" spans="2:22" ht="24" x14ac:dyDescent="0.2">
+      <c r="B26" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="31">
+        <v>23</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="31">
+        <v>24</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="12"/>
+      <c r="P26" s="54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="52"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+    </row>
+    <row r="28" spans="2:22" ht="24" x14ac:dyDescent="0.2">
+      <c r="B28" s="51"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="33">
-        <v>8</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="T10" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="V10" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="54"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="V11" s="22"/>
-    </row>
-    <row r="12" spans="2:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="B12" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="36" t="s">
+      <c r="E28" s="33"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="25">
+        <v>25</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="31">
+        <v>26</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="12"/>
+      <c r="P28" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="52"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+    </row>
+    <row r="30" spans="2:22" ht="24" x14ac:dyDescent="0.2">
+      <c r="B30" s="51"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="45">
+        <v>27</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="45">
+        <v>28</v>
+      </c>
+      <c r="K30" s="10"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="12"/>
+      <c r="P30" s="54"/>
+    </row>
+    <row r="31" spans="2:22" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="52"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+    </row>
+    <row r="32" spans="2:22" ht="24" x14ac:dyDescent="0.2">
+      <c r="B32" s="53"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="30">
+        <v>29</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="25">
+        <v>30</v>
+      </c>
+      <c r="K32" s="26"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="27">
-        <v>9</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="33">
-        <v>10</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="T12" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="V12" s="52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="54"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="V13" s="22"/>
-    </row>
-    <row r="14" spans="2:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="B14" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="32">
-        <v>11</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="32">
-        <v>12</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="V14" s="52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="54"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="V15" s="22"/>
-    </row>
-    <row r="16" spans="2:23" ht="24" x14ac:dyDescent="0.2">
-      <c r="B16" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="32">
-        <v>13</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="27">
-        <v>14</v>
-      </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="58"/>
-      <c r="S16" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="T16" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="V16" s="52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="54"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="V17" s="22"/>
-    </row>
-    <row r="18" spans="2:22" ht="24" x14ac:dyDescent="0.2">
-      <c r="B18" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="32">
-        <v>15</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="32">
-        <v>16</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="56"/>
-      <c r="S18" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="T18" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="V18" s="52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="54"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-    </row>
-    <row r="20" spans="2:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="53"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18">
-        <v>17</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="32">
-        <v>18</v>
-      </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" s="14"/>
-      <c r="P20" s="56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="54"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-    </row>
-    <row r="22" spans="2:22" ht="24" x14ac:dyDescent="0.2">
-      <c r="B22" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="33">
-        <v>19</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="27">
-        <v>20</v>
-      </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="58"/>
-    </row>
-    <row r="23" spans="2:22" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="54"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-    </row>
-    <row r="24" spans="2:22" ht="24" x14ac:dyDescent="0.2">
-      <c r="B24" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="33">
-        <v>21</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="42">
-        <v>22</v>
-      </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" s="14"/>
-      <c r="P24" s="56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="54"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-    </row>
-    <row r="26" spans="2:22" ht="24" x14ac:dyDescent="0.2">
-      <c r="B26" s="53"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="33">
-        <v>23</v>
-      </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="33">
-        <v>24</v>
-      </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" s="14"/>
-      <c r="P26" s="56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="54"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-    </row>
-    <row r="28" spans="2:22" ht="24" x14ac:dyDescent="0.2">
-      <c r="B28" s="53"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="27">
-        <v>25</v>
-      </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="33">
-        <v>26</v>
-      </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="14"/>
-      <c r="P28" s="56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="54"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-    </row>
-    <row r="30" spans="2:22" ht="24" x14ac:dyDescent="0.2">
-      <c r="B30" s="53"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="47">
-        <v>27</v>
-      </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="47">
-        <v>28</v>
-      </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" s="14"/>
-      <c r="P30" s="56"/>
-    </row>
-    <row r="31" spans="2:22" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="54"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-    </row>
-    <row r="32" spans="2:22" ht="24" x14ac:dyDescent="0.2">
-      <c r="B32" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="32">
-        <v>29</v>
-      </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="27">
-        <v>30</v>
-      </c>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="O32" s="26"/>
-      <c r="P32" s="58"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="56"/>
     </row>
     <row r="33" spans="2:19" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="54"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
     </row>
     <row r="34" spans="2:19" ht="24" x14ac:dyDescent="0.2">
       <c r="B34" s="53"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="12"/>
+      <c r="D34" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="32">
+      <c r="E34" s="5"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="30">
         <v>31</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="32">
+      <c r="I34" s="17"/>
+      <c r="J34" s="30">
         <v>32</v>
       </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="38" t="s">
+      <c r="K34" s="10"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="O34" s="14"/>
-      <c r="P34" s="56" t="s">
+      <c r="O34" s="12"/>
+      <c r="P34" s="54" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:19" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="54"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
     </row>
     <row r="36" spans="2:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="B36" s="55"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="31" t="s">
+      <c r="B36" s="53"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="32">
+      <c r="E36" s="5"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="30">
         <v>33</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="27">
+      <c r="I36" s="17"/>
+      <c r="J36" s="25">
         <v>34</v>
       </c>
-      <c r="K36" s="28"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="30" t="s">
+      <c r="K36" s="26"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O36" s="26"/>
-      <c r="P36" s="58"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="56"/>
     </row>
     <row r="37" spans="2:19" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="54"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
     </row>
     <row r="38" spans="2:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="B38" s="53"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="31" t="s">
+      <c r="B38" s="51"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="32">
+      <c r="E38" s="5"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="30">
         <v>35</v>
       </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="32">
+      <c r="I38" s="17"/>
+      <c r="J38" s="30">
         <v>36</v>
       </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="38" t="s">
+      <c r="K38" s="10"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="O38" s="14"/>
-      <c r="P38" s="56" t="s">
+      <c r="O38" s="12"/>
+      <c r="P38" s="54" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:19" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="54"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
     </row>
     <row r="40" spans="2:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="B40" s="53"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="31" t="s">
+      <c r="B40" s="51"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="32">
+      <c r="E40" s="5"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="30">
         <v>37</v>
       </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="32">
+      <c r="I40" s="17"/>
+      <c r="J40" s="30">
         <v>38</v>
       </c>
-      <c r="K40" s="12"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="38" t="s">
+      <c r="K40" s="10"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="O40" s="14"/>
-      <c r="P40" s="56" t="s">
+      <c r="O40" s="12"/>
+      <c r="P40" s="54" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:19" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="54"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
     </row>
     <row r="42" spans="2:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="B42" s="53"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="36" t="s">
+      <c r="B42" s="52"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="27">
+      <c r="E42" s="33"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="25">
         <v>39</v>
       </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="32">
+      <c r="I42" s="17"/>
+      <c r="J42" s="30">
         <v>40</v>
       </c>
-      <c r="K42" s="12"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="38" t="s">
+      <c r="K42" s="10"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="O42" s="14"/>
-      <c r="P42" s="56" t="s">
+      <c r="O42" s="12"/>
+      <c r="P42" s="54" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B43" s="23"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="23"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="21"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B44" s="23"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="23"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
